--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,12 +49,6 @@
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -73,171 +67,171 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>daughter</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>salad</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>beautiful</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>cakes</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
@@ -251,6 +245,9 @@
   </si>
   <si>
     <t>buy</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>product</t>
@@ -614,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +680,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -725,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -733,37 +730,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4883720930232558</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="C4">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>63</v>
       </c>
-      <c r="D4">
-        <v>63</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>66</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4646464646464646</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8591331269349846</v>
+        <v>0.8699690402476781</v>
       </c>
       <c r="L5">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="M5">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3717948717948718</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,145 +848,97 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="L6">
+        <v>60</v>
+      </c>
+      <c r="M6">
+        <v>60</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.7571428571428571</v>
+      </c>
+      <c r="L7">
+        <v>53</v>
+      </c>
+      <c r="M7">
+        <v>53</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6">
-        <v>0.855072463768116</v>
-      </c>
-      <c r="L6">
+      <c r="K8">
+        <v>0.7445887445887446</v>
+      </c>
+      <c r="L8">
+        <v>172</v>
+      </c>
+      <c r="M8">
+        <v>172</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>59</v>
-      </c>
-      <c r="M6">
-        <v>59</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.288135593220339</v>
-      </c>
-      <c r="C7">
-        <v>34</v>
-      </c>
-      <c r="D7">
-        <v>34</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>84</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>0.7402597402597403</v>
-      </c>
-      <c r="L7">
-        <v>171</v>
-      </c>
-      <c r="M7">
-        <v>171</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2054054054054054</v>
-      </c>
-      <c r="C8">
-        <v>38</v>
-      </c>
-      <c r="D8">
-        <v>38</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>147</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>0.7389830508474576</v>
-      </c>
-      <c r="L8">
-        <v>218</v>
-      </c>
-      <c r="M8">
-        <v>218</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.6883116883116883</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,21 +950,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.6861958266452648</v>
+        <v>0.6983050847457627</v>
       </c>
       <c r="L10">
-        <v>855</v>
+        <v>206</v>
       </c>
       <c r="M10">
-        <v>855</v>
+        <v>206</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,47 +976,47 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>391</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11">
+        <v>0.684931506849315</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>23</v>
-      </c>
-      <c r="K11">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L11">
-        <v>49</v>
-      </c>
-      <c r="M11">
-        <v>49</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.6590909090909091</v>
+        <v>0.6771084337349398</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>843</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>844</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,24 +1025,24 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.647887323943662</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1105,21 +1054,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.640625</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1131,21 +1080,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6029411764705882</v>
+        <v>0.625</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1157,21 +1106,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6024096385542169</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1183,21 +1132,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1209,21 +1158,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.5865384615384616</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L18">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M18">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1235,21 +1184,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5828571428571429</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L19">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1261,21 +1210,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5789473684210527</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1287,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5726495726495726</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L21">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1313,21 +1262,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5688622754491018</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L22">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M22">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1339,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5138888888888888</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1365,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5076923076923077</v>
+        <v>0.5</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1391,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5037593984962406</v>
+        <v>0.49</v>
       </c>
       <c r="L25">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="M25">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1417,47 +1366,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="L26">
+        <v>34</v>
+      </c>
+      <c r="M26">
+        <v>34</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>38</v>
-      </c>
-      <c r="K26">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="L26">
-        <v>39</v>
-      </c>
-      <c r="M26">
-        <v>39</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>0.4698795180722892</v>
+      </c>
+      <c r="L27">
         <v>39</v>
       </c>
-      <c r="K27">
-        <v>0.4578313253012048</v>
-      </c>
-      <c r="L27">
-        <v>76</v>
-      </c>
       <c r="M27">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1469,47 +1418,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4496314496314496</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="L28">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="M28">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>224</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.424124513618677</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L29">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1521,21 +1470,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>148</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.41</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1547,21 +1496,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.4041095890410959</v>
+        <v>0.428921568627451</v>
       </c>
       <c r="L31">
-        <v>295</v>
+        <v>175</v>
       </c>
       <c r="M31">
-        <v>295</v>
+        <v>175</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1573,21 +1522,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>435</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.3873873873873874</v>
+        <v>0.4280155642023346</v>
       </c>
       <c r="L32">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1599,47 +1548,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>68</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.3855421686746988</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.3815789473684211</v>
+        <v>0.4054794520547945</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1651,21 +1600,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.354066985645933</v>
+        <v>0.3759398496240601</v>
       </c>
       <c r="L35">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="M35">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1677,47 +1626,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>135</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.3525179856115108</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="L36">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.3377483443708609</v>
+        <v>0.354066985645933</v>
       </c>
       <c r="L37">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="M37">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1729,21 +1678,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.3308270676691729</v>
+        <v>0.3443708609271523</v>
       </c>
       <c r="L38">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M38">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1755,21 +1704,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.3196986006458558</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L39">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1781,21 +1730,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>632</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.3069306930693069</v>
+        <v>0.310010764262648</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="M40">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1807,21 +1756,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>70</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.3050397877984085</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L41">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="M41">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1830,76 +1779,76 @@
         <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>524</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.2972972972972973</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="L42">
         <v>33</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.2879177377892031</v>
+        <v>0.2809278350515464</v>
       </c>
       <c r="L43">
+        <v>218</v>
+      </c>
+      <c r="M43">
         <v>224</v>
       </c>
-      <c r="M43">
-        <v>228</v>
-      </c>
       <c r="N43">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.287037037037037</v>
+        <v>0.280794701986755</v>
       </c>
       <c r="L44">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="M44">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1911,203 +1860,203 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>77</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.2635135135135135</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M45">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.2476489028213166</v>
+        <v>0.2515723270440252</v>
       </c>
       <c r="L46">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M46">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.2326139088729017</v>
+        <v>0.2505494505494505</v>
       </c>
       <c r="L47">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="M47">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="N47">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O47">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>320</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.2258771929824561</v>
+        <v>0.2405405405405406</v>
       </c>
       <c r="L48">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="M48">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>353</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.2173913043478261</v>
+        <v>0.2219570405727924</v>
       </c>
       <c r="L49">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M49">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="N49">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>288</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.2027334851936219</v>
+        <v>0.2134146341463415</v>
       </c>
       <c r="L50">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="M50">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N50">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>350</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.201219512195122</v>
+        <v>0.2070707070707071</v>
       </c>
       <c r="L51">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M51">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.1992619926199262</v>
+        <v>0.1918819188191882</v>
       </c>
       <c r="L52">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M52">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2119,177 +2068,177 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.1962962962962963</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="L53">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M53">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.1878048780487805</v>
+        <v>0.1863354037267081</v>
       </c>
       <c r="L54">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="M54">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="N54">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O54">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>333</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.1827586206896552</v>
+        <v>0.1799544419134396</v>
       </c>
       <c r="L55">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="M55">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>237</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.1791044776119403</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="L56">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>165</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.1596638655462185</v>
+        <v>0.1701388888888889</v>
       </c>
       <c r="L57">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M57">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>200</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.1327561327561328</v>
+        <v>0.1634146341463415</v>
       </c>
       <c r="L58">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="M58">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="N58">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O58">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>601</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.1311475409836066</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="L59">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M59">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2301,116 +2250,116 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.1173708920187793</v>
+        <v>0.1373831775700935</v>
       </c>
       <c r="L60">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="M60">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="N60">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O60">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>940</v>
+        <v>923</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.1169354838709677</v>
+        <v>0.1205164992826399</v>
       </c>
       <c r="L61">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M61">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>219</v>
+        <v>613</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.1039301310043668</v>
+        <v>0.1042031523642732</v>
       </c>
       <c r="L62">
         <v>119</v>
       </c>
       <c r="M62">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N62">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="O62">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.09444444444444444</v>
+        <v>0.09851301115241635</v>
       </c>
       <c r="L63">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M63">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N63">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O63">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K64">
         <v>0.08897485493230174</v>
@@ -2436,16 +2385,16 @@
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.08287292817679558</v>
+        <v>0.0856353591160221</v>
       </c>
       <c r="L65">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M65">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N65">
         <v>0.91</v>
@@ -2457,27 +2406,27 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.07969151670951156</v>
+        <v>0.08439897698209718</v>
       </c>
       <c r="L66">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M66">
         <v>36</v>
       </c>
       <c r="N66">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="O66">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
@@ -2488,28 +2437,54 @@
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.0534045393858478</v>
+        <v>0.08068459657701711</v>
       </c>
       <c r="L67">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M67">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="N67">
-        <v>0.6899999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="O67">
-        <v>0.3100000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>709</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K68">
+        <v>0.04539385847797063</v>
+      </c>
+      <c r="L68">
+        <v>34</v>
+      </c>
+      <c r="M68">
+        <v>52</v>
+      </c>
+      <c r="N68">
+        <v>0.65</v>
+      </c>
+      <c r="O68">
+        <v>0.35</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
